--- a/Code/Results/Cases/Case_2_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.025306271236672</v>
+        <v>1.044261553573926</v>
       </c>
       <c r="D2">
-        <v>1.044829763955909</v>
+        <v>1.053165105629876</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.049226977980691</v>
+        <v>1.061802322142005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061076279134397</v>
+        <v>1.047876040294763</v>
       </c>
       <c r="J2">
-        <v>1.046755551600005</v>
+        <v>1.049327585015064</v>
       </c>
       <c r="K2">
-        <v>1.05569797609925</v>
+        <v>1.055911828251094</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.060040596901135</v>
+        <v>1.064525393959778</v>
       </c>
       <c r="N2">
-        <v>1.048242064547817</v>
+        <v>1.050817750545341</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029396150901479</v>
+        <v>1.045115621805247</v>
       </c>
       <c r="D3">
-        <v>1.048057167776504</v>
+        <v>1.053857968254202</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.052949511017585</v>
+        <v>1.06262545716466</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062563251632558</v>
+        <v>1.048124720046647</v>
       </c>
       <c r="J3">
-        <v>1.049116308585207</v>
+        <v>1.049829308940285</v>
       </c>
       <c r="K3">
-        <v>1.058109967590008</v>
+        <v>1.056417989191153</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.062946917989918</v>
+        <v>1.065163199780368</v>
       </c>
       <c r="N3">
-        <v>1.05060617407872</v>
+        <v>1.051320186976085</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031990820793235</v>
+        <v>1.04566862677661</v>
       </c>
       <c r="D4">
-        <v>1.05010666631533</v>
+        <v>1.054306575992151</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.055315347004761</v>
+        <v>1.063158700530994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063496567221288</v>
+        <v>1.04828451081056</v>
       </c>
       <c r="J4">
-        <v>1.050610148001482</v>
+        <v>1.050153651366159</v>
       </c>
       <c r="K4">
-        <v>1.059635741995057</v>
+        <v>1.056745110037366</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.064789035774797</v>
+        <v>1.06557586970437</v>
       </c>
       <c r="N4">
-        <v>1.052102134918313</v>
+        <v>1.051644990005406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033069622367251</v>
+        <v>1.045901196175576</v>
       </c>
       <c r="D5">
-        <v>1.050959239175208</v>
+        <v>1.054495235901522</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.056299983944876</v>
+        <v>1.063383022697269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06388217415416</v>
+        <v>1.048351417549271</v>
       </c>
       <c r="J5">
-        <v>1.051230299109867</v>
+        <v>1.050289930392647</v>
       </c>
       <c r="K5">
-        <v>1.060269027838666</v>
+        <v>1.056882534847629</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.065554505102102</v>
+        <v>1.065749346752461</v>
       </c>
       <c r="N5">
-        <v>1.052723166712404</v>
+        <v>1.051781462563743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033250065437605</v>
+        <v>1.045940250608549</v>
       </c>
       <c r="D6">
-        <v>1.051101867470545</v>
+        <v>1.054526916506865</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.05646473343141</v>
+        <v>1.063420695924611</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063946527110439</v>
+        <v>1.048362635670955</v>
       </c>
       <c r="J6">
-        <v>1.05133397044151</v>
+        <v>1.05031280783692</v>
       </c>
       <c r="K6">
-        <v>1.060374887520713</v>
+        <v>1.056905603365849</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.065682512643217</v>
+        <v>1.065778473719021</v>
       </c>
       <c r="N6">
-        <v>1.052826985269229</v>
+        <v>1.051804372496612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032005282427465</v>
+        <v>1.045671734043757</v>
       </c>
       <c r="D7">
-        <v>1.050118093600427</v>
+        <v>1.054309096620907</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.055328542511017</v>
+        <v>1.063161697360723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063501746085087</v>
+        <v>1.048285405880797</v>
       </c>
       <c r="J7">
-        <v>1.050618465092334</v>
+        <v>1.050155472627474</v>
       </c>
       <c r="K7">
-        <v>1.059644235734317</v>
+        <v>1.056746946696296</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.064799298882068</v>
+        <v>1.065578187751905</v>
       </c>
       <c r="N7">
-        <v>1.052110463820387</v>
+        <v>1.051646813853122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026699423882832</v>
+        <v>1.044550113338886</v>
       </c>
       <c r="D8">
-        <v>1.045928686469782</v>
+        <v>1.053399202979948</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.050494096228482</v>
+        <v>1.062080375047668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061584875060617</v>
+        <v>1.047960314566245</v>
       </c>
       <c r="J8">
-        <v>1.047560497137773</v>
+        <v>1.049497207735744</v>
       </c>
       <c r="K8">
-        <v>1.056520488991005</v>
+        <v>1.056082969606591</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.061030921757195</v>
+        <v>1.064740949393644</v>
       </c>
       <c r="N8">
-        <v>1.049048153200577</v>
+        <v>1.050987614149741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016934846553687</v>
+        <v>1.04257653909855</v>
       </c>
       <c r="D9">
-        <v>1.038236426783959</v>
+        <v>1.051798065809168</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.041632146710099</v>
+        <v>1.060179773140955</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057979046604701</v>
+        <v>1.047378905534494</v>
       </c>
       <c r="J9">
-        <v>1.041903445047824</v>
+        <v>1.048334964294907</v>
       </c>
       <c r="K9">
-        <v>1.050738175960391</v>
+        <v>1.054909955096418</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.054084045098892</v>
+        <v>1.063265439720438</v>
       </c>
       <c r="N9">
-        <v>1.043383067447788</v>
+        <v>1.049823720189906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010118614879234</v>
+        <v>1.04126283436106</v>
       </c>
       <c r="D10">
-        <v>1.032881436385952</v>
+        <v>1.05073222569792</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.03547208846234</v>
+        <v>1.058916054817521</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055411369935384</v>
+        <v>1.046985592123648</v>
       </c>
       <c r="J10">
-        <v>1.037936444360301</v>
+        <v>1.047558659418853</v>
       </c>
       <c r="K10">
-        <v>1.046681344757594</v>
+        <v>1.054126000557383</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.049229116754702</v>
+        <v>1.062281726624349</v>
       </c>
       <c r="N10">
-        <v>1.039410433164267</v>
+        <v>1.049046312871885</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007087802866675</v>
+        <v>1.040694480559723</v>
       </c>
       <c r="D11">
-        <v>1.030504463926438</v>
+        <v>1.050271101534695</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.032739788371785</v>
+        <v>1.058369667307305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054258175116501</v>
+        <v>1.046813938869592</v>
       </c>
       <c r="J11">
-        <v>1.036168664979419</v>
+        <v>1.047222175026753</v>
       </c>
       <c r="K11">
-        <v>1.044873161135658</v>
+        <v>1.053786093685391</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.047069609580427</v>
+        <v>1.061855776722761</v>
       </c>
       <c r="N11">
-        <v>1.037640143333897</v>
+        <v>1.048709350633353</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005949500507546</v>
+        <v>1.040483443525009</v>
       </c>
       <c r="D12">
-        <v>1.029612401133154</v>
+        <v>1.05009987997223</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.031714663890509</v>
+        <v>1.058166838244783</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053823381403209</v>
+        <v>1.046749977733785</v>
       </c>
       <c r="J12">
-        <v>1.035504183797752</v>
+        <v>1.047097139900504</v>
       </c>
       <c r="K12">
-        <v>1.044193445122587</v>
+        <v>1.053659770844537</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.046258480400432</v>
+        <v>1.061697562070167</v>
       </c>
       <c r="N12">
-        <v>1.036974718512735</v>
+        <v>1.048584137942884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006194247086157</v>
+        <v>1.040528708274618</v>
       </c>
       <c r="D13">
-        <v>1.029804172380505</v>
+        <v>1.050136604815235</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.031935027177482</v>
+        <v>1.058210340146353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053916941668699</v>
+        <v>1.04676370671979</v>
       </c>
       <c r="J13">
-        <v>1.035647078005609</v>
+        <v>1.047123962596821</v>
       </c>
       <c r="K13">
-        <v>1.044339617527468</v>
+        <v>1.053686870503076</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.046432883714513</v>
+        <v>1.061731499531616</v>
       </c>
       <c r="N13">
-        <v>1.037117815646758</v>
+        <v>1.048610998730505</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006993969551178</v>
+        <v>1.040677034637086</v>
       </c>
       <c r="D14">
-        <v>1.030430914791507</v>
+        <v>1.050256947063587</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.032655262688708</v>
+        <v>1.058352898862397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054222367805556</v>
+        <v>1.046808655927887</v>
       </c>
       <c r="J14">
-        <v>1.036113900866775</v>
+        <v>1.047211840594426</v>
       </c>
       <c r="K14">
-        <v>1.044817142338059</v>
+        <v>1.053775653145284</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.0470027471337</v>
+        <v>1.061842698598864</v>
       </c>
       <c r="N14">
-        <v>1.037585301449931</v>
+        <v>1.048699001524948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007485026702539</v>
+        <v>1.040768433367819</v>
       </c>
       <c r="D15">
-        <v>1.03081584666581</v>
+        <v>1.050331101958356</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.033097653955883</v>
+        <v>1.058440750421549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054409689675692</v>
+        <v>1.046836323943342</v>
       </c>
       <c r="J15">
-        <v>1.036400475489661</v>
+        <v>1.047265978558427</v>
       </c>
       <c r="K15">
-        <v>1.045110280706857</v>
+        <v>1.053830346313215</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.047352655347852</v>
+        <v>1.061911212336724</v>
       </c>
       <c r="N15">
-        <v>1.037872283041652</v>
+        <v>1.048753216371067</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010318037627848</v>
+        <v>1.041300564553844</v>
       </c>
       <c r="D16">
-        <v>1.033037927741688</v>
+        <v>1.050762837381716</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.035652014417807</v>
+        <v>1.05895233399162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055487012685971</v>
+        <v>1.046996955890243</v>
       </c>
       <c r="J16">
-        <v>1.038052683950405</v>
+        <v>1.047580983728336</v>
       </c>
       <c r="K16">
-        <v>1.04680023404865</v>
+        <v>1.054148549693223</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.049371196776133</v>
+        <v>1.062309995732243</v>
       </c>
       <c r="N16">
-        <v>1.039526837827921</v>
+        <v>1.049068668884449</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012073454826928</v>
+        <v>1.041634488302511</v>
       </c>
       <c r="D17">
-        <v>1.034415915821727</v>
+        <v>1.051033759620566</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.037236585705509</v>
+        <v>1.059273455185835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056151554210098</v>
+        <v>1.047097356238965</v>
       </c>
       <c r="J17">
-        <v>1.039075445822476</v>
+        <v>1.047778488116902</v>
       </c>
       <c r="K17">
-        <v>1.047846268433067</v>
+        <v>1.054348030815799</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.050621771804526</v>
+        <v>1.062560144212663</v>
       </c>
       <c r="N17">
-        <v>1.040551052139163</v>
+        <v>1.049266453751901</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013089747735544</v>
+        <v>1.041829307464596</v>
       </c>
       <c r="D18">
-        <v>1.035214083352651</v>
+        <v>1.051191821656154</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.038154605269221</v>
+        <v>1.059460837863821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056535194332761</v>
+        <v>1.047155788149249</v>
       </c>
       <c r="J18">
-        <v>1.0396672006289</v>
+        <v>1.047893656276099</v>
       </c>
       <c r="K18">
-        <v>1.048451452321608</v>
+        <v>1.054464341338856</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.05134571050576</v>
+        <v>1.062706051912575</v>
       </c>
       <c r="N18">
-        <v>1.041143647305287</v>
+        <v>1.049381785463093</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013435003901079</v>
+        <v>1.041895743708736</v>
       </c>
       <c r="D19">
-        <v>1.035485301553509</v>
+        <v>1.051245723066271</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.038466582555074</v>
+        <v>1.059524743711159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056665338095831</v>
+        <v>1.047175689862404</v>
       </c>
       <c r="J19">
-        <v>1.039868168444948</v>
+        <v>1.047932920042832</v>
       </c>
       <c r="K19">
-        <v>1.048656974465089</v>
+        <v>1.054503992816034</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.051591633199929</v>
+        <v>1.062755802678355</v>
       </c>
       <c r="N19">
-        <v>1.041344900518687</v>
+        <v>1.049421104988879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011885906787716</v>
+        <v>1.041598656563715</v>
       </c>
       <c r="D20">
-        <v>1.034268651724757</v>
+        <v>1.051004688319302</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.037067224311566</v>
+        <v>1.059238993827868</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056080668034936</v>
+        <v>1.047086597664046</v>
       </c>
       <c r="J20">
-        <v>1.038966212471292</v>
+        <v>1.047757301150618</v>
       </c>
       <c r="K20">
-        <v>1.047734553202872</v>
+        <v>1.054326632863681</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.050488168592423</v>
+        <v>1.062533305604153</v>
       </c>
       <c r="N20">
-        <v>1.040441663664091</v>
+        <v>1.049245236697695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006758821984065</v>
+        <v>1.040633354142132</v>
       </c>
       <c r="D21">
-        <v>1.030246610689995</v>
+        <v>1.050221507588072</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.032443457488696</v>
+        <v>1.058310915447952</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054132607276052</v>
+        <v>1.046795425062165</v>
       </c>
       <c r="J21">
-        <v>1.035976652609509</v>
+        <v>1.047185964081227</v>
       </c>
       <c r="K21">
-        <v>1.044676748890145</v>
+        <v>1.053749510690249</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.046835187995443</v>
+        <v>1.06180995317533</v>
       </c>
       <c r="N21">
-        <v>1.037447858284398</v>
+        <v>1.048673088264132</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003462433205728</v>
+        <v>1.040026864085812</v>
       </c>
       <c r="D22">
-        <v>1.027664641112756</v>
+        <v>1.049729441527967</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.029476890863609</v>
+        <v>1.057728111641637</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052870366055935</v>
+        <v>1.046611187989156</v>
       </c>
       <c r="J22">
-        <v>1.034051405128712</v>
+        <v>1.046826453983075</v>
       </c>
       <c r="K22">
-        <v>1.042707280517031</v>
+        <v>1.053386268119723</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.044486180521926</v>
+        <v>1.061355165697641</v>
       </c>
       <c r="N22">
-        <v>1.035519876731348</v>
+        <v>1.048313067620404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00521702268105</v>
+        <v>1.040348334342943</v>
       </c>
       <c r="D23">
-        <v>1.029038570951558</v>
+        <v>1.049990261261204</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.03105532027353</v>
+        <v>1.058036998518159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05354313142601</v>
+        <v>1.046708965757254</v>
       </c>
       <c r="J23">
-        <v>1.035076452962815</v>
+        <v>1.047017063992137</v>
       </c>
       <c r="K23">
-        <v>1.043755895256358</v>
+        <v>1.05357886577134</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.045736519782136</v>
+        <v>1.061596255436903</v>
       </c>
       <c r="N23">
-        <v>1.036546380250951</v>
+        <v>1.048503948317541</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011970675154053</v>
+        <v>1.041614847238765</v>
       </c>
       <c r="D24">
-        <v>1.034335211275989</v>
+        <v>1.051017824272762</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.037143770666908</v>
+        <v>1.059254565190996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056112710715658</v>
+        <v>1.047091459402445</v>
       </c>
       <c r="J24">
-        <v>1.039015585145424</v>
+        <v>1.047766874730198</v>
       </c>
       <c r="K24">
-        <v>1.04778504778056</v>
+        <v>1.054336301811539</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.050548555103732</v>
+        <v>1.062545432815249</v>
       </c>
       <c r="N24">
-        <v>1.040491106453084</v>
+        <v>1.049254823872855</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019511131855453</v>
+        <v>1.0430864070731</v>
       </c>
       <c r="D25">
-        <v>1.04026362484211</v>
+        <v>1.052211725979618</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.043965958020963</v>
+        <v>1.060670541564079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058939303873343</v>
+        <v>1.047530223013258</v>
       </c>
       <c r="J25">
-        <v>1.043399248983642</v>
+        <v>1.048635697214459</v>
       </c>
       <c r="K25">
-        <v>1.052267474868421</v>
+        <v>1.055213555641827</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.055918051378851</v>
+        <v>1.063646907744537</v>
       </c>
       <c r="N25">
-        <v>1.044880995596765</v>
+        <v>1.050124880184699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044261553573926</v>
+        <v>1.025306271236672</v>
       </c>
       <c r="D2">
-        <v>1.053165105629876</v>
+        <v>1.044829763955909</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.061802322142005</v>
+        <v>1.04922697798069</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047876040294763</v>
+        <v>1.061076279134397</v>
       </c>
       <c r="J2">
-        <v>1.049327585015064</v>
+        <v>1.046755551600005</v>
       </c>
       <c r="K2">
-        <v>1.055911828251094</v>
+        <v>1.05569797609925</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.064525393959778</v>
+        <v>1.060040596901135</v>
       </c>
       <c r="N2">
-        <v>1.050817750545341</v>
+        <v>1.048242064547817</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045115621805247</v>
+        <v>1.029396150901479</v>
       </c>
       <c r="D3">
-        <v>1.053857968254202</v>
+        <v>1.048057167776504</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.06262545716466</v>
+        <v>1.052949511017585</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048124720046647</v>
+        <v>1.062563251632558</v>
       </c>
       <c r="J3">
-        <v>1.049829308940285</v>
+        <v>1.049116308585207</v>
       </c>
       <c r="K3">
-        <v>1.056417989191153</v>
+        <v>1.058109967590008</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.065163199780368</v>
+        <v>1.062946917989918</v>
       </c>
       <c r="N3">
-        <v>1.051320186976085</v>
+        <v>1.05060617407872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04566862677661</v>
+        <v>1.031990820793234</v>
       </c>
       <c r="D4">
-        <v>1.054306575992151</v>
+        <v>1.05010666631533</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.063158700530994</v>
+        <v>1.05531534700476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04828451081056</v>
+        <v>1.063496567221288</v>
       </c>
       <c r="J4">
-        <v>1.050153651366159</v>
+        <v>1.050610148001482</v>
       </c>
       <c r="K4">
-        <v>1.056745110037366</v>
+        <v>1.059635741995056</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.06557586970437</v>
+        <v>1.064789035774796</v>
       </c>
       <c r="N4">
-        <v>1.051644990005406</v>
+        <v>1.052102134918312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045901196175576</v>
+        <v>1.03306962236725</v>
       </c>
       <c r="D5">
-        <v>1.054495235901522</v>
+        <v>1.050959239175208</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.063383022697269</v>
+        <v>1.056299983944875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048351417549271</v>
+        <v>1.06388217415416</v>
       </c>
       <c r="J5">
-        <v>1.050289930392647</v>
+        <v>1.051230299109866</v>
       </c>
       <c r="K5">
-        <v>1.056882534847629</v>
+        <v>1.060269027838665</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.065749346752461</v>
+        <v>1.065554505102102</v>
       </c>
       <c r="N5">
-        <v>1.051781462563743</v>
+        <v>1.052723166712403</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045940250608549</v>
+        <v>1.033250065437605</v>
       </c>
       <c r="D6">
-        <v>1.054526916506865</v>
+        <v>1.051101867470545</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.063420695924611</v>
+        <v>1.05646473343141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048362635670955</v>
+        <v>1.063946527110439</v>
       </c>
       <c r="J6">
-        <v>1.05031280783692</v>
+        <v>1.05133397044151</v>
       </c>
       <c r="K6">
-        <v>1.056905603365849</v>
+        <v>1.060374887520713</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.065778473719021</v>
+        <v>1.065682512643217</v>
       </c>
       <c r="N6">
-        <v>1.051804372496612</v>
+        <v>1.052826985269229</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045671734043757</v>
+        <v>1.032005282427464</v>
       </c>
       <c r="D7">
-        <v>1.054309096620907</v>
+        <v>1.050118093600427</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.063161697360723</v>
+        <v>1.055328542511016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048285405880797</v>
+        <v>1.063501746085087</v>
       </c>
       <c r="J7">
-        <v>1.050155472627474</v>
+        <v>1.050618465092333</v>
       </c>
       <c r="K7">
-        <v>1.056746946696296</v>
+        <v>1.059644235734316</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.065578187751905</v>
+        <v>1.064799298882068</v>
       </c>
       <c r="N7">
-        <v>1.051646813853122</v>
+        <v>1.052110463820386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044550113338886</v>
+        <v>1.026699423882831</v>
       </c>
       <c r="D8">
-        <v>1.053399202979948</v>
+        <v>1.045928686469782</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.062080375047668</v>
+        <v>1.050494096228481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047960314566245</v>
+        <v>1.061584875060617</v>
       </c>
       <c r="J8">
-        <v>1.049497207735744</v>
+        <v>1.047560497137773</v>
       </c>
       <c r="K8">
-        <v>1.056082969606591</v>
+        <v>1.056520488991005</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.064740949393644</v>
+        <v>1.061030921757194</v>
       </c>
       <c r="N8">
-        <v>1.050987614149741</v>
+        <v>1.049048153200576</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04257653909855</v>
+        <v>1.016934846553686</v>
       </c>
       <c r="D9">
-        <v>1.051798065809168</v>
+        <v>1.038236426783958</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.060179773140955</v>
+        <v>1.041632146710098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047378905534494</v>
+        <v>1.057979046604701</v>
       </c>
       <c r="J9">
-        <v>1.048334964294907</v>
+        <v>1.041903445047823</v>
       </c>
       <c r="K9">
-        <v>1.054909955096418</v>
+        <v>1.05073817596039</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.063265439720438</v>
+        <v>1.054084045098891</v>
       </c>
       <c r="N9">
-        <v>1.049823720189906</v>
+        <v>1.043383067447787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.04126283436106</v>
+        <v>1.010118614879233</v>
       </c>
       <c r="D10">
-        <v>1.05073222569792</v>
+        <v>1.032881436385951</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.058916054817521</v>
+        <v>1.035472088462339</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046985592123648</v>
+        <v>1.055411369935383</v>
       </c>
       <c r="J10">
-        <v>1.047558659418853</v>
+        <v>1.0379364443603</v>
       </c>
       <c r="K10">
-        <v>1.054126000557383</v>
+        <v>1.046681344757594</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.062281726624349</v>
+        <v>1.049229116754701</v>
       </c>
       <c r="N10">
-        <v>1.049046312871885</v>
+        <v>1.039410433164266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040694480559723</v>
+        <v>1.007087802866676</v>
       </c>
       <c r="D11">
-        <v>1.050271101534695</v>
+        <v>1.030504463926439</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.058369667307305</v>
+        <v>1.032739788371785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046813938869592</v>
+        <v>1.054258175116502</v>
       </c>
       <c r="J11">
-        <v>1.047222175026753</v>
+        <v>1.036168664979419</v>
       </c>
       <c r="K11">
-        <v>1.053786093685391</v>
+        <v>1.044873161135658</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.061855776722761</v>
+        <v>1.047069609580428</v>
       </c>
       <c r="N11">
-        <v>1.048709350633353</v>
+        <v>1.037640143333897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040483443525009</v>
+        <v>1.005949500507546</v>
       </c>
       <c r="D12">
-        <v>1.05009987997223</v>
+        <v>1.029612401133154</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.058166838244783</v>
+        <v>1.031714663890509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046749977733785</v>
+        <v>1.053823381403209</v>
       </c>
       <c r="J12">
-        <v>1.047097139900504</v>
+        <v>1.035504183797752</v>
       </c>
       <c r="K12">
-        <v>1.053659770844537</v>
+        <v>1.044193445122587</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.061697562070167</v>
+        <v>1.046258480400432</v>
       </c>
       <c r="N12">
-        <v>1.048584137942884</v>
+        <v>1.036974718512735</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040528708274618</v>
+        <v>1.006194247086158</v>
       </c>
       <c r="D13">
-        <v>1.050136604815235</v>
+        <v>1.029804172380505</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.058210340146353</v>
+        <v>1.031935027177483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04676370671979</v>
+        <v>1.0539169416687</v>
       </c>
       <c r="J13">
-        <v>1.047123962596821</v>
+        <v>1.03564707800561</v>
       </c>
       <c r="K13">
-        <v>1.053686870503076</v>
+        <v>1.044339617527468</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.061731499531616</v>
+        <v>1.046432883714514</v>
       </c>
       <c r="N13">
-        <v>1.048610998730505</v>
+        <v>1.037117815646758</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040677034637086</v>
+        <v>1.006993969551177</v>
       </c>
       <c r="D14">
-        <v>1.050256947063587</v>
+        <v>1.030430914791507</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.058352898862397</v>
+        <v>1.032655262688708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046808655927887</v>
+        <v>1.054222367805556</v>
       </c>
       <c r="J14">
-        <v>1.047211840594426</v>
+        <v>1.036113900866775</v>
       </c>
       <c r="K14">
-        <v>1.053775653145284</v>
+        <v>1.044817142338059</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.061842698598864</v>
+        <v>1.0470027471337</v>
       </c>
       <c r="N14">
-        <v>1.048699001524948</v>
+        <v>1.037585301449931</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040768433367819</v>
+        <v>1.007485026702539</v>
       </c>
       <c r="D15">
-        <v>1.050331101958356</v>
+        <v>1.03081584666581</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.058440750421549</v>
+        <v>1.033097653955883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046836323943342</v>
+        <v>1.054409689675692</v>
       </c>
       <c r="J15">
-        <v>1.047265978558427</v>
+        <v>1.036400475489661</v>
       </c>
       <c r="K15">
-        <v>1.053830346313215</v>
+        <v>1.045110280706858</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.061911212336724</v>
+        <v>1.047352655347852</v>
       </c>
       <c r="N15">
-        <v>1.048753216371067</v>
+        <v>1.037872283041653</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041300564553844</v>
+        <v>1.010318037627849</v>
       </c>
       <c r="D16">
-        <v>1.050762837381716</v>
+        <v>1.033037927741689</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.05895233399162</v>
+        <v>1.035652014417807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046996955890243</v>
+        <v>1.055487012685972</v>
       </c>
       <c r="J16">
-        <v>1.047580983728336</v>
+        <v>1.038052683950405</v>
       </c>
       <c r="K16">
-        <v>1.054148549693223</v>
+        <v>1.04680023404865</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.062309995732243</v>
+        <v>1.049371196776134</v>
       </c>
       <c r="N16">
-        <v>1.049068668884449</v>
+        <v>1.039526837827922</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041634488302511</v>
+        <v>1.012073454826927</v>
       </c>
       <c r="D17">
-        <v>1.051033759620566</v>
+        <v>1.034415915821726</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.059273455185835</v>
+        <v>1.037236585705509</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047097356238965</v>
+        <v>1.056151554210098</v>
       </c>
       <c r="J17">
-        <v>1.047778488116902</v>
+        <v>1.039075445822475</v>
       </c>
       <c r="K17">
-        <v>1.054348030815799</v>
+        <v>1.047846268433066</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.062560144212663</v>
+        <v>1.050621771804525</v>
       </c>
       <c r="N17">
-        <v>1.049266453751901</v>
+        <v>1.040551052139162</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041829307464596</v>
+        <v>1.013089747735543</v>
       </c>
       <c r="D18">
-        <v>1.051191821656154</v>
+        <v>1.03521408335265</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.059460837863821</v>
+        <v>1.03815460526922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047155788149249</v>
+        <v>1.05653519433276</v>
       </c>
       <c r="J18">
-        <v>1.047893656276099</v>
+        <v>1.039667200628899</v>
       </c>
       <c r="K18">
-        <v>1.054464341338856</v>
+        <v>1.048451452321608</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.062706051912575</v>
+        <v>1.05134571050576</v>
       </c>
       <c r="N18">
-        <v>1.049381785463093</v>
+        <v>1.041143647305287</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041895743708736</v>
+        <v>1.013435003901077</v>
       </c>
       <c r="D19">
-        <v>1.051245723066271</v>
+        <v>1.035485301553507</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.059524743711159</v>
+        <v>1.038466582555072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047175689862404</v>
+        <v>1.05666533809583</v>
       </c>
       <c r="J19">
-        <v>1.047932920042832</v>
+        <v>1.039868168444947</v>
       </c>
       <c r="K19">
-        <v>1.054503992816034</v>
+        <v>1.048656974465087</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.062755802678355</v>
+        <v>1.051591633199928</v>
       </c>
       <c r="N19">
-        <v>1.049421104988879</v>
+        <v>1.041344900518685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041598656563715</v>
+        <v>1.011885906787715</v>
       </c>
       <c r="D20">
-        <v>1.051004688319302</v>
+        <v>1.034268651724757</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.059238993827868</v>
+        <v>1.037067224311565</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047086597664046</v>
+        <v>1.056080668034936</v>
       </c>
       <c r="J20">
-        <v>1.047757301150618</v>
+        <v>1.038966212471291</v>
       </c>
       <c r="K20">
-        <v>1.054326632863681</v>
+        <v>1.047734553202872</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.062533305604153</v>
+        <v>1.050488168592422</v>
       </c>
       <c r="N20">
-        <v>1.049245236697695</v>
+        <v>1.040441663664091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040633354142132</v>
+        <v>1.006758821984064</v>
       </c>
       <c r="D21">
-        <v>1.050221507588072</v>
+        <v>1.030246610689993</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.058310915447952</v>
+        <v>1.032443457488695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046795425062165</v>
+        <v>1.054132607276051</v>
       </c>
       <c r="J21">
-        <v>1.047185964081227</v>
+        <v>1.035976652609507</v>
       </c>
       <c r="K21">
-        <v>1.053749510690249</v>
+        <v>1.044676748890143</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.06180995317533</v>
+        <v>1.046835187995441</v>
       </c>
       <c r="N21">
-        <v>1.048673088264132</v>
+        <v>1.037447858284396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040026864085812</v>
+        <v>1.003462433205729</v>
       </c>
       <c r="D22">
-        <v>1.049729441527967</v>
+        <v>1.027664641112757</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.057728111641637</v>
+        <v>1.029476890863611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046611187989156</v>
+        <v>1.052870366055935</v>
       </c>
       <c r="J22">
-        <v>1.046826453983075</v>
+        <v>1.034051405128713</v>
       </c>
       <c r="K22">
-        <v>1.053386268119723</v>
+        <v>1.042707280517032</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.061355165697641</v>
+        <v>1.044486180521927</v>
       </c>
       <c r="N22">
-        <v>1.048313067620404</v>
+        <v>1.03551987673135</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040348334342943</v>
+        <v>1.00521702268105</v>
       </c>
       <c r="D23">
-        <v>1.049990261261204</v>
+        <v>1.029038570951557</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.058036998518159</v>
+        <v>1.031055320273529</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046708965757254</v>
+        <v>1.053543131426009</v>
       </c>
       <c r="J23">
-        <v>1.047017063992137</v>
+        <v>1.035076452962815</v>
       </c>
       <c r="K23">
-        <v>1.05357886577134</v>
+        <v>1.043755895256358</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.061596255436903</v>
+        <v>1.045736519782136</v>
       </c>
       <c r="N23">
-        <v>1.048503948317541</v>
+        <v>1.03654638025095</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041614847238765</v>
+        <v>1.011970675154053</v>
       </c>
       <c r="D24">
-        <v>1.051017824272762</v>
+        <v>1.034335211275989</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.059254565190996</v>
+        <v>1.037143770666908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047091459402445</v>
+        <v>1.056112710715658</v>
       </c>
       <c r="J24">
-        <v>1.047766874730198</v>
+        <v>1.039015585145424</v>
       </c>
       <c r="K24">
-        <v>1.054336301811539</v>
+        <v>1.047785047780559</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.062545432815249</v>
+        <v>1.050548555103732</v>
       </c>
       <c r="N24">
-        <v>1.049254823872855</v>
+        <v>1.040491106453083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0430864070731</v>
+        <v>1.019511131855453</v>
       </c>
       <c r="D25">
-        <v>1.052211725979618</v>
+        <v>1.040263624842111</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.060670541564079</v>
+        <v>1.043965958020963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047530223013258</v>
+        <v>1.058939303873343</v>
       </c>
       <c r="J25">
-        <v>1.048635697214459</v>
+        <v>1.043399248983642</v>
       </c>
       <c r="K25">
-        <v>1.055213555641827</v>
+        <v>1.052267474868421</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.063646907744537</v>
+        <v>1.055918051378851</v>
       </c>
       <c r="N25">
-        <v>1.050124880184699</v>
+        <v>1.044880995596766</v>
       </c>
     </row>
   </sheetData>
